--- a/po_analysis_by_asin/B0CSJYJP6M_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJYJP6M_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>180</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>240</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>390</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>30</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>180</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>600</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>30</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>40</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>240</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>300</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>140</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>60</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>180</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>280</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>260</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>260</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>160</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>240</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>160</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>120</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>400</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>100</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>20</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>80</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>40</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>360</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>80</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>240</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>160</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>100</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>360</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>810</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>210</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>630</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>580</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>660</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>680</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>520</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>640</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>440</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>860</v>

--- a/po_analysis_by_asin/B0CSJYJP6M_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJYJP6M_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -725,7 +726,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -807,6 +808,593 @@
       </c>
       <c r="B11" t="n">
         <v>860</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>220</v>
+      </c>
+      <c r="C2" t="n">
+        <v>55.8882252072184</v>
+      </c>
+      <c r="D2" t="n">
+        <v>392.8087834586332</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>219</v>
+      </c>
+      <c r="C3" t="n">
+        <v>53.7108405614392</v>
+      </c>
+      <c r="D3" t="n">
+        <v>396.7693921948915</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>217</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73.22352205327748</v>
+      </c>
+      <c r="D4" t="n">
+        <v>391.9987004008162</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>216</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51.96540504086437</v>
+      </c>
+      <c r="D5" t="n">
+        <v>389.935177324105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>215</v>
+      </c>
+      <c r="C6" t="n">
+        <v>37.9146527960158</v>
+      </c>
+      <c r="D6" t="n">
+        <v>384.886584074201</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>211</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38.80440419763252</v>
+      </c>
+      <c r="D7" t="n">
+        <v>382.0612069649268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>209</v>
+      </c>
+      <c r="C8" t="n">
+        <v>53.83377329538325</v>
+      </c>
+      <c r="D8" t="n">
+        <v>379.9356772936172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>206</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35.53500382542496</v>
+      </c>
+      <c r="D9" t="n">
+        <v>372.8653218421948</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>205</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.94267583633107</v>
+      </c>
+      <c r="D10" t="n">
+        <v>370.5113807612109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>203</v>
+      </c>
+      <c r="C11" t="n">
+        <v>46.65544413334859</v>
+      </c>
+      <c r="D11" t="n">
+        <v>370.2778748425147</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>202</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33.71498450830284</v>
+      </c>
+      <c r="D12" t="n">
+        <v>366.2354598198034</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34.20981511510289</v>
+      </c>
+      <c r="D13" t="n">
+        <v>376.035851722312</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>199</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29.48600718991518</v>
+      </c>
+      <c r="D14" t="n">
+        <v>373.8852629449764</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>197</v>
+      </c>
+      <c r="C15" t="n">
+        <v>36.57450362165186</v>
+      </c>
+      <c r="D15" t="n">
+        <v>366.7691416809411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>196</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23.66150161999895</v>
+      </c>
+      <c r="D16" t="n">
+        <v>347.1596946454475</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>194</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42.20076404336291</v>
+      </c>
+      <c r="D17" t="n">
+        <v>363.7439604971308</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>193</v>
+      </c>
+      <c r="C18" t="n">
+        <v>37.26085295328647</v>
+      </c>
+      <c r="D18" t="n">
+        <v>353.3628018643095</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>190</v>
+      </c>
+      <c r="C19" t="n">
+        <v>26.55302100686422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>352.1105315233472</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>188</v>
+      </c>
+      <c r="C20" t="n">
+        <v>35.95195210834845</v>
+      </c>
+      <c r="D20" t="n">
+        <v>352.4591765763395</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>187</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23.75819648872706</v>
+      </c>
+      <c r="D21" t="n">
+        <v>340.6372931688884</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>186</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16.6113589726269</v>
+      </c>
+      <c r="D22" t="n">
+        <v>363.3946346350864</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>185</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22.42175391051883</v>
+      </c>
+      <c r="D23" t="n">
+        <v>365.9041608446242</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>183</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10.7153934599534</v>
+      </c>
+      <c r="D24" t="n">
+        <v>347.4994830832895</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>182</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15.86358671878397</v>
+      </c>
+      <c r="D25" t="n">
+        <v>354.6397005766892</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>181</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25.66847765581792</v>
+      </c>
+      <c r="D26" t="n">
+        <v>358.3558083092226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>180</v>
+      </c>
+      <c r="C27" t="n">
+        <v>22.78203379154992</v>
+      </c>
+      <c r="D27" t="n">
+        <v>341.156318166454</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>179</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13.21726331897987</v>
+      </c>
+      <c r="D28" t="n">
+        <v>344.1953763765827</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>175</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.159644261233824</v>
+      </c>
+      <c r="D29" t="n">
+        <v>344.68544037537</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>174</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.371883989847041</v>
+      </c>
+      <c r="D30" t="n">
+        <v>358.2143488353243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>173</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.242928038589448</v>
+      </c>
+      <c r="D31" t="n">
+        <v>349.3763540910184</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>170</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-5.035100683737947</v>
+      </c>
+      <c r="D32" t="n">
+        <v>332.9901675362584</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>169</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.610709822757935</v>
+      </c>
+      <c r="D33" t="n">
+        <v>334.9879340804551</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>168</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-10.63615854637522</v>
+      </c>
+      <c r="D34" t="n">
+        <v>329.5341924259803</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>167</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-4.79942035092493</v>
+      </c>
+      <c r="D35" t="n">
+        <v>325.6300582412811</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>165</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-19.11516658387239</v>
+      </c>
+      <c r="D36" t="n">
+        <v>345.3890323655697</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>164</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.961933716304516</v>
+      </c>
+      <c r="D37" t="n">
+        <v>338.4523326466775</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>163</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02691102362835098</v>
+      </c>
+      <c r="D38" t="n">
+        <v>329.440607513026</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>162</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-12.98087530412556</v>
+      </c>
+      <c r="D39" t="n">
+        <v>325.404270377802</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>160</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.616682950742907</v>
+      </c>
+      <c r="D40" t="n">
+        <v>330.9622301835887</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSJYJP6M_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJYJP6M_po_data.xlsx
@@ -821,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,16 +840,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -858,12 +848,6 @@
       <c r="B2" t="n">
         <v>220</v>
       </c>
-      <c r="C2" t="n">
-        <v>55.8882252072184</v>
-      </c>
-      <c r="D2" t="n">
-        <v>392.8087834586332</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -872,12 +856,6 @@
       <c r="B3" t="n">
         <v>219</v>
       </c>
-      <c r="C3" t="n">
-        <v>53.7108405614392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>396.7693921948915</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -886,12 +864,6 @@
       <c r="B4" t="n">
         <v>217</v>
       </c>
-      <c r="C4" t="n">
-        <v>73.22352205327748</v>
-      </c>
-      <c r="D4" t="n">
-        <v>391.9987004008162</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -900,12 +872,6 @@
       <c r="B5" t="n">
         <v>216</v>
       </c>
-      <c r="C5" t="n">
-        <v>51.96540504086437</v>
-      </c>
-      <c r="D5" t="n">
-        <v>389.935177324105</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -914,12 +880,6 @@
       <c r="B6" t="n">
         <v>215</v>
       </c>
-      <c r="C6" t="n">
-        <v>37.9146527960158</v>
-      </c>
-      <c r="D6" t="n">
-        <v>384.886584074201</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -928,12 +888,6 @@
       <c r="B7" t="n">
         <v>211</v>
       </c>
-      <c r="C7" t="n">
-        <v>38.80440419763252</v>
-      </c>
-      <c r="D7" t="n">
-        <v>382.0612069649268</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -942,12 +896,6 @@
       <c r="B8" t="n">
         <v>209</v>
       </c>
-      <c r="C8" t="n">
-        <v>53.83377329538325</v>
-      </c>
-      <c r="D8" t="n">
-        <v>379.9356772936172</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -956,12 +904,6 @@
       <c r="B9" t="n">
         <v>206</v>
       </c>
-      <c r="C9" t="n">
-        <v>35.53500382542496</v>
-      </c>
-      <c r="D9" t="n">
-        <v>372.8653218421948</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -970,12 +912,6 @@
       <c r="B10" t="n">
         <v>205</v>
       </c>
-      <c r="C10" t="n">
-        <v>25.94267583633107</v>
-      </c>
-      <c r="D10" t="n">
-        <v>370.5113807612109</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -984,12 +920,6 @@
       <c r="B11" t="n">
         <v>203</v>
       </c>
-      <c r="C11" t="n">
-        <v>46.65544413334859</v>
-      </c>
-      <c r="D11" t="n">
-        <v>370.2778748425147</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -998,12 +928,6 @@
       <c r="B12" t="n">
         <v>202</v>
       </c>
-      <c r="C12" t="n">
-        <v>33.71498450830284</v>
-      </c>
-      <c r="D12" t="n">
-        <v>366.2354598198034</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1012,12 +936,6 @@
       <c r="B13" t="n">
         <v>200</v>
       </c>
-      <c r="C13" t="n">
-        <v>34.20981511510289</v>
-      </c>
-      <c r="D13" t="n">
-        <v>376.035851722312</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1026,12 +944,6 @@
       <c r="B14" t="n">
         <v>199</v>
       </c>
-      <c r="C14" t="n">
-        <v>29.48600718991518</v>
-      </c>
-      <c r="D14" t="n">
-        <v>373.8852629449764</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1040,12 +952,6 @@
       <c r="B15" t="n">
         <v>197</v>
       </c>
-      <c r="C15" t="n">
-        <v>36.57450362165186</v>
-      </c>
-      <c r="D15" t="n">
-        <v>366.7691416809411</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1054,12 +960,6 @@
       <c r="B16" t="n">
         <v>196</v>
       </c>
-      <c r="C16" t="n">
-        <v>23.66150161999895</v>
-      </c>
-      <c r="D16" t="n">
-        <v>347.1596946454475</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1068,12 +968,6 @@
       <c r="B17" t="n">
         <v>194</v>
       </c>
-      <c r="C17" t="n">
-        <v>42.20076404336291</v>
-      </c>
-      <c r="D17" t="n">
-        <v>363.7439604971308</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1082,12 +976,6 @@
       <c r="B18" t="n">
         <v>193</v>
       </c>
-      <c r="C18" t="n">
-        <v>37.26085295328647</v>
-      </c>
-      <c r="D18" t="n">
-        <v>353.3628018643095</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1096,12 +984,6 @@
       <c r="B19" t="n">
         <v>190</v>
       </c>
-      <c r="C19" t="n">
-        <v>26.55302100686422</v>
-      </c>
-      <c r="D19" t="n">
-        <v>352.1105315233472</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1110,12 +992,6 @@
       <c r="B20" t="n">
         <v>188</v>
       </c>
-      <c r="C20" t="n">
-        <v>35.95195210834845</v>
-      </c>
-      <c r="D20" t="n">
-        <v>352.4591765763395</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1124,12 +1000,6 @@
       <c r="B21" t="n">
         <v>187</v>
       </c>
-      <c r="C21" t="n">
-        <v>23.75819648872706</v>
-      </c>
-      <c r="D21" t="n">
-        <v>340.6372931688884</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1138,12 +1008,6 @@
       <c r="B22" t="n">
         <v>186</v>
       </c>
-      <c r="C22" t="n">
-        <v>16.6113589726269</v>
-      </c>
-      <c r="D22" t="n">
-        <v>363.3946346350864</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1152,12 +1016,6 @@
       <c r="B23" t="n">
         <v>185</v>
       </c>
-      <c r="C23" t="n">
-        <v>22.42175391051883</v>
-      </c>
-      <c r="D23" t="n">
-        <v>365.9041608446242</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1166,12 +1024,6 @@
       <c r="B24" t="n">
         <v>183</v>
       </c>
-      <c r="C24" t="n">
-        <v>10.7153934599534</v>
-      </c>
-      <c r="D24" t="n">
-        <v>347.4994830832895</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1180,12 +1032,6 @@
       <c r="B25" t="n">
         <v>182</v>
       </c>
-      <c r="C25" t="n">
-        <v>15.86358671878397</v>
-      </c>
-      <c r="D25" t="n">
-        <v>354.6397005766892</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1194,12 +1040,6 @@
       <c r="B26" t="n">
         <v>181</v>
       </c>
-      <c r="C26" t="n">
-        <v>25.66847765581792</v>
-      </c>
-      <c r="D26" t="n">
-        <v>358.3558083092226</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1208,12 +1048,6 @@
       <c r="B27" t="n">
         <v>180</v>
       </c>
-      <c r="C27" t="n">
-        <v>22.78203379154992</v>
-      </c>
-      <c r="D27" t="n">
-        <v>341.156318166454</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1222,12 +1056,6 @@
       <c r="B28" t="n">
         <v>179</v>
       </c>
-      <c r="C28" t="n">
-        <v>13.21726331897987</v>
-      </c>
-      <c r="D28" t="n">
-        <v>344.1953763765827</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1236,12 +1064,6 @@
       <c r="B29" t="n">
         <v>175</v>
       </c>
-      <c r="C29" t="n">
-        <v>3.159644261233824</v>
-      </c>
-      <c r="D29" t="n">
-        <v>344.68544037537</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1250,12 +1072,6 @@
       <c r="B30" t="n">
         <v>174</v>
       </c>
-      <c r="C30" t="n">
-        <v>7.371883989847041</v>
-      </c>
-      <c r="D30" t="n">
-        <v>358.2143488353243</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1264,12 +1080,6 @@
       <c r="B31" t="n">
         <v>173</v>
       </c>
-      <c r="C31" t="n">
-        <v>5.242928038589448</v>
-      </c>
-      <c r="D31" t="n">
-        <v>349.3763540910184</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1278,12 +1088,6 @@
       <c r="B32" t="n">
         <v>170</v>
       </c>
-      <c r="C32" t="n">
-        <v>-5.035100683737947</v>
-      </c>
-      <c r="D32" t="n">
-        <v>332.9901675362584</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1292,12 +1096,6 @@
       <c r="B33" t="n">
         <v>169</v>
       </c>
-      <c r="C33" t="n">
-        <v>8.610709822757935</v>
-      </c>
-      <c r="D33" t="n">
-        <v>334.9879340804551</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1306,12 +1104,6 @@
       <c r="B34" t="n">
         <v>168</v>
       </c>
-      <c r="C34" t="n">
-        <v>-10.63615854637522</v>
-      </c>
-      <c r="D34" t="n">
-        <v>329.5341924259803</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1320,12 +1112,6 @@
       <c r="B35" t="n">
         <v>167</v>
       </c>
-      <c r="C35" t="n">
-        <v>-4.79942035092493</v>
-      </c>
-      <c r="D35" t="n">
-        <v>325.6300582412811</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1334,12 +1120,6 @@
       <c r="B36" t="n">
         <v>165</v>
       </c>
-      <c r="C36" t="n">
-        <v>-19.11516658387239</v>
-      </c>
-      <c r="D36" t="n">
-        <v>345.3890323655697</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1348,12 +1128,6 @@
       <c r="B37" t="n">
         <v>164</v>
       </c>
-      <c r="C37" t="n">
-        <v>4.961933716304516</v>
-      </c>
-      <c r="D37" t="n">
-        <v>338.4523326466775</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1362,12 +1136,6 @@
       <c r="B38" t="n">
         <v>163</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.02691102362835098</v>
-      </c>
-      <c r="D38" t="n">
-        <v>329.440607513026</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1376,12 +1144,6 @@
       <c r="B39" t="n">
         <v>162</v>
       </c>
-      <c r="C39" t="n">
-        <v>-12.98087530412556</v>
-      </c>
-      <c r="D39" t="n">
-        <v>325.404270377802</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1389,12 +1151,6 @@
       </c>
       <c r="B40" t="n">
         <v>160</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-1.616682950742907</v>
-      </c>
-      <c r="D40" t="n">
-        <v>330.9622301835887</v>
       </c>
     </row>
   </sheetData>
